--- a/DIAS Attributes - Values 2017.xlsx
+++ b/DIAS Attributes - Values 2017.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nareshsharma/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30532539-D3BC-CD44-80A3-400D1F31AC08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4623CF29-4D56-A849-9B11-1F1975094333}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3376" uniqueCount="1225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3376" uniqueCount="1226">
   <si>
     <t>AGER_TYP</t>
   </si>
@@ -3700,6 +3700,9 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>Continuous</t>
   </si>
 </sst>
 </file>
@@ -4433,8 +4436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F2260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4442,7 +4445,7 @@
     <col min="1" max="1" width="2.83203125" customWidth="1"/>
     <col min="2" max="2" width="31.1640625" customWidth="1"/>
     <col min="3" max="3" width="53.5" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="76.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4865,7 +4868,7 @@
         <v>872</v>
       </c>
       <c r="F39" s="57" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4882,7 +4885,7 @@
         <v>872</v>
       </c>
       <c r="F40" s="57" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4899,7 +4902,7 @@
         <v>873</v>
       </c>
       <c r="F41" s="57" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4916,7 +4919,7 @@
         <v>872</v>
       </c>
       <c r="F42" s="57" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
@@ -12251,8 +12254,8 @@
       <c r="E714" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="F714" s="57" t="s">
-        <v>1223</v>
+      <c r="F714" s="60" t="s">
+        <v>1225</v>
       </c>
     </row>
     <row r="715" spans="2:6" ht="16" x14ac:dyDescent="0.2">
@@ -17352,8 +17355,8 @@
       <c r="E1170" s="13" t="s">
         <v>595</v>
       </c>
-      <c r="F1170" s="57" t="s">
-        <v>1223</v>
+      <c r="F1170" s="60" t="s">
+        <v>1225</v>
       </c>
     </row>
     <row r="1171" spans="2:6" x14ac:dyDescent="0.2">
@@ -26304,8 +26307,8 @@
       <c r="E1989" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="F1989" t="s">
-        <v>1223</v>
+      <c r="F1989" s="60" t="s">
+        <v>1225</v>
       </c>
     </row>
     <row r="1990" spans="2:6" x14ac:dyDescent="0.2">

--- a/DIAS Attributes - Values 2017.xlsx
+++ b/DIAS Attributes - Values 2017.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nareshsharma/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nareshsharma/Documents/repos/udacity-capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4623CF29-4D56-A849-9B11-1F1975094333}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB038DB-F3EB-A948-9C8C-CA1F55344A50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3376" uniqueCount="1226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3376" uniqueCount="1225">
   <si>
     <t>AGER_TYP</t>
   </si>
@@ -3700,9 +3700,6 @@
   </si>
   <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>Continuous</t>
   </si>
 </sst>
 </file>
@@ -4077,6 +4074,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4092,10 +4093,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4436,8 +4433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F2260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A1973" workbookViewId="0">
+      <selection activeCell="G1992" sqref="G1992"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4479,7 +4476,7 @@
       <c r="E3" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -4536,7 +4533,7 @@
       <c r="E8" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -4603,7 +4600,7 @@
       <c r="E14" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -4830,7 +4827,7 @@
       <c r="E36" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F36" s="57" t="s">
+      <c r="F36" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -4867,8 +4864,8 @@
       <c r="E39" s="5" t="s">
         <v>872</v>
       </c>
-      <c r="F39" s="57" t="s">
-        <v>1225</v>
+      <c r="F39" s="52" t="s">
+        <v>1223</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4884,8 +4881,8 @@
       <c r="E40" s="5" t="s">
         <v>872</v>
       </c>
-      <c r="F40" s="57" t="s">
-        <v>1225</v>
+      <c r="F40" s="52" t="s">
+        <v>1223</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4901,8 +4898,8 @@
       <c r="E41" s="5" t="s">
         <v>873</v>
       </c>
-      <c r="F41" s="57" t="s">
-        <v>1225</v>
+      <c r="F41" s="52" t="s">
+        <v>1223</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4918,8 +4915,8 @@
       <c r="E42" s="5" t="s">
         <v>872</v>
       </c>
-      <c r="F42" s="57" t="s">
-        <v>1225</v>
+      <c r="F42" s="52" t="s">
+        <v>1223</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
@@ -4935,7 +4932,7 @@
       <c r="E43" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F43" s="57" t="s">
+      <c r="F43" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -5022,7 +5019,7 @@
       <c r="E51" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F51" s="57" t="s">
+      <c r="F51" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -5059,7 +5056,7 @@
       <c r="E54" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F54" s="57" t="s">
+      <c r="F54" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -5166,7 +5163,7 @@
       <c r="E64" s="5" t="s">
         <v>1085</v>
       </c>
-      <c r="F64" s="57" t="s">
+      <c r="F64" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -5613,7 +5610,7 @@
       <c r="E108" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F108" s="57" t="s">
+      <c r="F108" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -5882,7 +5879,7 @@
       <c r="E134" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F134" s="57" t="s">
+      <c r="F134" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -5959,7 +5956,7 @@
       <c r="E141" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F141" s="57" t="s">
+      <c r="F141" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -6036,7 +6033,7 @@
       <c r="E148" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F148" s="57" t="s">
+      <c r="F148" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -6113,7 +6110,7 @@
       <c r="E155" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="F155" s="57" t="s">
+      <c r="F155" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -6220,7 +6217,7 @@
       <c r="E165" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F165" s="57" t="s">
+      <c r="F165" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -6309,7 +6306,7 @@
       <c r="E173" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F173" s="57" t="s">
+      <c r="F173" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -6398,7 +6395,7 @@
       <c r="E181" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F181" s="57" t="s">
+      <c r="F181" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -6487,7 +6484,7 @@
       <c r="E189" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="F189" s="57" t="s">
+      <c r="F189" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -6594,7 +6591,7 @@
       <c r="E199" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="F199" s="57" t="s">
+      <c r="F199" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -6701,7 +6698,7 @@
       <c r="E209" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="F209" s="57" t="s">
+      <c r="F209" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -6818,7 +6815,7 @@
       <c r="E220" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F220" s="57" t="s">
+      <c r="F220" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -6907,7 +6904,7 @@
       <c r="E228" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F228" s="57" t="s">
+      <c r="F228" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -6996,7 +6993,7 @@
       <c r="E236" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F236" s="57" t="s">
+      <c r="F236" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -7085,7 +7082,7 @@
       <c r="E244" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F244" s="57" t="s">
+      <c r="F244" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -7174,7 +7171,7 @@
       <c r="E252" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F252" s="57" t="s">
+      <c r="F252" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -7263,7 +7260,7 @@
       <c r="E260" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F260" s="57" t="s">
+      <c r="F260" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -7352,7 +7349,7 @@
       <c r="E268" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F268" s="57" t="s">
+      <c r="F268" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -7441,7 +7438,7 @@
       <c r="E276" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F276" s="57" t="s">
+      <c r="F276" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -7530,7 +7527,7 @@
       <c r="E284" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F284" s="57" t="s">
+      <c r="F284" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -7619,7 +7616,7 @@
       <c r="E292" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F292" s="57" t="s">
+      <c r="F292" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -7708,7 +7705,7 @@
       <c r="E300" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F300" s="57" t="s">
+      <c r="F300" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -7797,7 +7794,7 @@
       <c r="E308" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F308" s="57" t="s">
+      <c r="F308" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -7874,7 +7871,7 @@
       <c r="E315" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F315" s="57" t="s">
+      <c r="F315" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -7951,7 +7948,7 @@
       <c r="E322" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="F322" s="57" t="s">
+      <c r="F322" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -8058,7 +8055,7 @@
       <c r="E332" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="F332" s="58" t="s">
+      <c r="F332" s="53" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -8165,7 +8162,7 @@
       <c r="E342" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="F342" s="58" t="s">
+      <c r="F342" s="53" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -8272,7 +8269,7 @@
       <c r="E352" s="50" t="s">
         <v>795</v>
       </c>
-      <c r="F352" s="58" t="s">
+      <c r="F352" s="53" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -8389,7 +8386,7 @@
       <c r="E363" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F363" s="57" t="s">
+      <c r="F363" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -8478,7 +8475,7 @@
       <c r="E371" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F371" s="57" t="s">
+      <c r="F371" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -8567,7 +8564,7 @@
       <c r="E379" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F379" s="57" t="s">
+      <c r="F379" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -8656,7 +8653,7 @@
       <c r="E387" s="2" t="s">
         <v>1168</v>
       </c>
-      <c r="F387" s="57" t="s">
+      <c r="F387" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -8733,7 +8730,7 @@
       <c r="E394" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F394" s="57" t="s">
+      <c r="F394" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -8810,7 +8807,7 @@
       <c r="E401" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F401" s="57" t="s">
+      <c r="F401" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -8899,7 +8896,7 @@
       <c r="E409" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F409" s="57" t="s">
+      <c r="F409" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -8988,7 +8985,7 @@
       <c r="E417" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F417" s="57" t="s">
+      <c r="F417" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -9077,7 +9074,7 @@
       <c r="E425" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F425" s="57" t="s">
+      <c r="F425" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -9166,7 +9163,7 @@
       <c r="E433" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F433" s="57" t="s">
+      <c r="F433" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -9255,7 +9252,7 @@
       <c r="E441" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F441" s="57" t="s">
+      <c r="F441" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -9344,7 +9341,7 @@
       <c r="E449" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F449" s="57" t="s">
+      <c r="F449" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -9433,7 +9430,7 @@
       <c r="E457" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F457" s="57" t="s">
+      <c r="F457" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -9522,7 +9519,7 @@
       <c r="E465" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F465" s="57" t="s">
+      <c r="F465" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -9611,7 +9608,7 @@
       <c r="E473" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F473" s="57" t="s">
+      <c r="F473" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -9700,7 +9697,7 @@
       <c r="E481" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F481" s="57" t="s">
+      <c r="F481" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -9777,7 +9774,7 @@
       <c r="E488" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F488" s="57" t="s">
+      <c r="F488" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -9854,7 +9851,7 @@
       <c r="E495" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="F495" s="57" t="s">
+      <c r="F495" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -9961,7 +9958,7 @@
       <c r="E505" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F505" s="57" t="s">
+      <c r="F505" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -10050,7 +10047,7 @@
       <c r="E513" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="F513" s="57" t="s">
+      <c r="F513" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -10157,7 +10154,7 @@
       <c r="E523" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="F523" s="57" t="s">
+      <c r="F523" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -10264,7 +10261,7 @@
       <c r="E533" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F533" s="57" t="s">
+      <c r="F533" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -10353,7 +10350,7 @@
       <c r="E541" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F541" s="57" t="s">
+      <c r="F541" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -10442,7 +10439,7 @@
       <c r="E549" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F549" s="57" t="s">
+      <c r="F549" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -10519,7 +10516,7 @@
       <c r="E556" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F556" s="57" t="s">
+      <c r="F556" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -10596,7 +10593,7 @@
       <c r="E563" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="F563" s="57" t="s">
+      <c r="F563" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -10703,7 +10700,7 @@
       <c r="E573" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="F573" s="57" t="s">
+      <c r="F573" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -10810,7 +10807,7 @@
       <c r="E583" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="F583" s="57" t="s">
+      <c r="F583" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -10917,7 +10914,7 @@
       <c r="E593" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="F593" s="57" t="s">
+      <c r="F593" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -11034,7 +11031,7 @@
       <c r="E604" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F604" s="57" t="s">
+      <c r="F604" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -11123,7 +11120,7 @@
       <c r="E612" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F612" s="57" t="s">
+      <c r="F612" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -11212,7 +11209,7 @@
       <c r="E620" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F620" s="57" t="s">
+      <c r="F620" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -11289,7 +11286,7 @@
       <c r="E627" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F627" s="57" t="s">
+      <c r="F627" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -11366,7 +11363,7 @@
       <c r="E634" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F634" s="57" t="s">
+      <c r="F634" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -11455,7 +11452,7 @@
       <c r="E642" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F642" s="57" t="s">
+      <c r="F642" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -11544,7 +11541,7 @@
       <c r="E650" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F650" s="57" t="s">
+      <c r="F650" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -11621,7 +11618,7 @@
       <c r="E657" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F657" s="57" t="s">
+      <c r="F657" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -11698,7 +11695,7 @@
       <c r="E664" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F664" s="57" t="s">
+      <c r="F664" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -11765,7 +11762,7 @@
       <c r="E670" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F670" s="57" t="s">
+      <c r="F670" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -11832,7 +11829,7 @@
       <c r="E676" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F676" s="57" t="s">
+      <c r="F676" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -11899,7 +11896,7 @@
       <c r="E682" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F682" s="57" t="s">
+      <c r="F682" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -11966,7 +11963,7 @@
       <c r="E688" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F688" s="57" t="s">
+      <c r="F688" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -12033,7 +12030,7 @@
       <c r="E694" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F694" s="57" t="s">
+      <c r="F694" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -12100,7 +12097,7 @@
       <c r="E700" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F700" s="57" t="s">
+      <c r="F700" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -12197,7 +12194,7 @@
       <c r="E709" s="2" t="s">
         <v>1079</v>
       </c>
-      <c r="F709" s="57" t="s">
+      <c r="F709" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -12254,8 +12251,8 @@
       <c r="E714" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="F714" s="60" t="s">
-        <v>1225</v>
+      <c r="F714" s="55" t="s">
+        <v>1223</v>
       </c>
     </row>
     <row r="715" spans="2:6" ht="16" x14ac:dyDescent="0.2">
@@ -12271,7 +12268,7 @@
       <c r="E715" s="28" t="s">
         <v>1156</v>
       </c>
-      <c r="F715" s="57" t="s">
+      <c r="F715" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -12398,7 +12395,7 @@
       <c r="E727" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F727" s="57" t="s">
+      <c r="F727" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -12485,7 +12482,7 @@
       <c r="E735" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="F735" s="57" t="s">
+      <c r="F735" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -12514,7 +12511,7 @@
       <c r="E737" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F737" s="57" t="s">
+      <c r="F737" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -12621,7 +12618,7 @@
       <c r="E747" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F747" s="57" t="s">
+      <c r="F747" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -12678,7 +12675,7 @@
       <c r="E752" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F752" s="57" t="s">
+      <c r="F752" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -12755,7 +12752,7 @@
       <c r="E759" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F759" s="57" t="s">
+      <c r="F759" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -12852,7 +12849,7 @@
       <c r="E768" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="F768" s="57" t="s">
+      <c r="F768" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -12919,7 +12916,7 @@
       <c r="E774" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F774" s="57" t="s">
+      <c r="F774" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -12986,7 +12983,7 @@
       <c r="E780" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F780" s="57" t="s">
+      <c r="F780" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -13053,7 +13050,7 @@
       <c r="E786" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F786" s="57" t="s">
+      <c r="F786" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -13130,7 +13127,7 @@
       <c r="E793" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F793" s="57" t="s">
+      <c r="F793" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -13187,7 +13184,7 @@
       <c r="E798" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F798" s="57" t="s">
+      <c r="F798" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -13254,7 +13251,7 @@
       <c r="E804" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F804" s="57" t="s">
+      <c r="F804" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -13321,7 +13318,7 @@
       <c r="E810" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F810" s="57" t="s">
+      <c r="F810" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -13378,7 +13375,7 @@
       <c r="E815" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F815" s="57" t="s">
+      <c r="F815" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -13425,7 +13422,7 @@
       <c r="E819" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="F819" s="57" t="s">
+      <c r="F819" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -13492,7 +13489,7 @@
       <c r="E825" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F825" s="57" t="s">
+      <c r="F825" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -13559,7 +13556,7 @@
       <c r="E831" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F831" s="57" t="s">
+      <c r="F831" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -13626,7 +13623,7 @@
       <c r="E837" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F837" s="57" t="s">
+      <c r="F837" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -13693,7 +13690,7 @@
       <c r="E843" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F843" s="57" t="s">
+      <c r="F843" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -13760,7 +13757,7 @@
       <c r="E849" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F849" s="57" t="s">
+      <c r="F849" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -13827,7 +13824,7 @@
       <c r="E855" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F855" s="57" t="s">
+      <c r="F855" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -13894,7 +13891,7 @@
       <c r="E861" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F861" s="57" t="s">
+      <c r="F861" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -13961,7 +13958,7 @@
       <c r="E867" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F867" s="57" t="s">
+      <c r="F867" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -14028,7 +14025,7 @@
       <c r="E873" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="F873" s="57" t="s">
+      <c r="F873" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -14105,7 +14102,7 @@
       <c r="E880" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="F880" s="57" t="s">
+      <c r="F880" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -14182,7 +14179,7 @@
       <c r="E887" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="F887" s="57" t="s">
+      <c r="F887" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -14259,7 +14256,7 @@
       <c r="E894" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="F894" s="57" t="s">
+      <c r="F894" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -14336,7 +14333,7 @@
       <c r="E901" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="F901" s="57" t="s">
+      <c r="F901" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -14413,7 +14410,7 @@
       <c r="E908" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F908" s="57" t="s">
+      <c r="F908" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -14480,7 +14477,7 @@
       <c r="E914" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F914" s="57" t="s">
+      <c r="F914" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -14547,7 +14544,7 @@
       <c r="E920" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F920" s="57" t="s">
+      <c r="F920" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -14614,7 +14611,7 @@
       <c r="E926" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F926" s="57" t="s">
+      <c r="F926" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -14681,7 +14678,7 @@
       <c r="E932" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F932" s="57" t="s">
+      <c r="F932" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -14748,7 +14745,7 @@
       <c r="E938" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F938" s="57" t="s">
+      <c r="F938" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -14795,7 +14792,7 @@
       <c r="E942" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F942" s="57" t="s">
+      <c r="F942" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -14842,7 +14839,7 @@
       <c r="E946" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F946" s="57" t="s">
+      <c r="F946" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -14889,7 +14886,7 @@
       <c r="E950" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F950" s="57" t="s">
+      <c r="F950" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -14936,7 +14933,7 @@
       <c r="E954" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F954" s="57" t="s">
+      <c r="F954" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -15003,7 +15000,7 @@
       <c r="E960" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F960" s="57" t="s">
+      <c r="F960" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -15070,7 +15067,7 @@
       <c r="E966" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F966" s="57" t="s">
+      <c r="F966" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -15137,7 +15134,7 @@
       <c r="E972" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F972" s="57" t="s">
+      <c r="F972" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -15204,7 +15201,7 @@
       <c r="E978" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F978" s="57" t="s">
+      <c r="F978" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -15261,7 +15258,7 @@
       <c r="E983" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F983" s="57" t="s">
+      <c r="F983" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -15328,7 +15325,7 @@
       <c r="E989" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F989" s="57" t="s">
+      <c r="F989" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -15385,7 +15382,7 @@
       <c r="E994" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F994" s="57" t="s">
+      <c r="F994" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -15432,7 +15429,7 @@
       <c r="E998" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F998" s="57" t="s">
+      <c r="F998" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -15499,7 +15496,7 @@
       <c r="E1004" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F1004" s="57" t="s">
+      <c r="F1004" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -15566,7 +15563,7 @@
       <c r="E1010" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F1010" s="57" t="s">
+      <c r="F1010" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -15633,7 +15630,7 @@
       <c r="E1016" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F1016" s="57" t="s">
+      <c r="F1016" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -15710,7 +15707,7 @@
       <c r="E1023" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F1023" s="57" t="s">
+      <c r="F1023" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -15767,7 +15764,7 @@
       <c r="E1028" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F1028" s="57" t="s">
+      <c r="F1028" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -15834,7 +15831,7 @@
       <c r="E1034" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F1034" s="57" t="s">
+      <c r="F1034" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -15891,7 +15888,7 @@
       <c r="E1039" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F1039" s="57" t="s">
+      <c r="F1039" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -15948,7 +15945,7 @@
       <c r="E1044" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F1044" s="57" t="s">
+      <c r="F1044" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -16005,7 +16002,7 @@
       <c r="E1049" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F1049" s="57" t="s">
+      <c r="F1049" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -16072,7 +16069,7 @@
       <c r="E1055" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F1055" s="57" t="s">
+      <c r="F1055" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -16139,7 +16136,7 @@
       <c r="E1061" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F1061" s="57" t="s">
+      <c r="F1061" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -16206,7 +16203,7 @@
       <c r="E1067" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F1067" s="57" t="s">
+      <c r="F1067" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -16273,7 +16270,7 @@
       <c r="E1073" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F1073" s="57" t="s">
+      <c r="F1073" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -16340,7 +16337,7 @@
       <c r="E1079" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F1079" s="57" t="s">
+      <c r="F1079" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -16377,7 +16374,7 @@
       <c r="E1082" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F1082" s="57" t="s">
+      <c r="F1082" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -16434,7 +16431,7 @@
       <c r="E1087" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F1087" s="57" t="s">
+      <c r="F1087" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -16491,7 +16488,7 @@
       <c r="E1092" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F1092" s="57" t="s">
+      <c r="F1092" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -16548,7 +16545,7 @@
       <c r="E1097" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F1097" s="57" t="s">
+      <c r="F1097" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -16615,7 +16612,7 @@
       <c r="E1103" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F1103" s="57" t="s">
+      <c r="F1103" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -16682,7 +16679,7 @@
       <c r="E1109" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F1109" s="57" t="s">
+      <c r="F1109" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -16759,7 +16756,7 @@
       <c r="E1116" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F1116" s="57" t="s">
+      <c r="F1116" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -16826,7 +16823,7 @@
       <c r="E1122" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F1122" s="57" t="s">
+      <c r="F1122" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -16893,7 +16890,7 @@
       <c r="E1128" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F1128" s="57" t="s">
+      <c r="F1128" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -16970,7 +16967,7 @@
       <c r="E1135" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F1135" s="57" t="s">
+      <c r="F1135" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -17047,7 +17044,7 @@
       <c r="E1142" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1142" s="57" t="s">
+      <c r="F1142" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -17124,7 +17121,7 @@
       <c r="E1149" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1149" s="57" t="s">
+      <c r="F1149" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -17201,7 +17198,7 @@
       <c r="E1156" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1156" s="57" t="s">
+      <c r="F1156" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -17278,7 +17275,7 @@
       <c r="E1163" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1163" s="57" t="s">
+      <c r="F1163" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -17355,8 +17352,8 @@
       <c r="E1170" s="13" t="s">
         <v>595</v>
       </c>
-      <c r="F1170" s="60" t="s">
-        <v>1225</v>
+      <c r="F1170" s="55" t="s">
+        <v>1223</v>
       </c>
     </row>
     <row r="1171" spans="2:6" x14ac:dyDescent="0.2">
@@ -17372,7 +17369,7 @@
       <c r="E1171" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1171" s="57" t="s">
+      <c r="F1171" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -17449,7 +17446,7 @@
       <c r="E1178" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1178" s="57" t="s">
+      <c r="F1178" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -17526,7 +17523,7 @@
       <c r="E1185" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1185" s="57" t="s">
+      <c r="F1185" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -17603,7 +17600,7 @@
       <c r="E1192" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1192" s="57" t="s">
+      <c r="F1192" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -17680,7 +17677,7 @@
       <c r="E1199" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1199" s="57" t="s">
+      <c r="F1199" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -17757,7 +17754,7 @@
       <c r="E1206" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1206" s="57" t="s">
+      <c r="F1206" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -17834,7 +17831,7 @@
       <c r="E1213" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1213" s="57" t="s">
+      <c r="F1213" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -17911,7 +17908,7 @@
       <c r="E1220" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1220" s="57" t="s">
+      <c r="F1220" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -17988,7 +17985,7 @@
       <c r="E1227" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1227" s="57" t="s">
+      <c r="F1227" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -18065,7 +18062,7 @@
       <c r="E1234" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1234" s="57" t="s">
+      <c r="F1234" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -18142,7 +18139,7 @@
       <c r="E1241" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1241" s="57" t="s">
+      <c r="F1241" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -18219,7 +18216,7 @@
       <c r="E1248" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1248" s="57" t="s">
+      <c r="F1248" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -18296,7 +18293,7 @@
       <c r="E1255" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1255" s="57" t="s">
+      <c r="F1255" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -18373,7 +18370,7 @@
       <c r="E1262" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1262" s="57" t="s">
+      <c r="F1262" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -18450,7 +18447,7 @@
       <c r="E1269" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1269" s="57" t="s">
+      <c r="F1269" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -18527,7 +18524,7 @@
       <c r="E1276" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1276" s="57" t="s">
+      <c r="F1276" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -18604,7 +18601,7 @@
       <c r="E1283" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1283" s="57" t="s">
+      <c r="F1283" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -18681,7 +18678,7 @@
       <c r="E1290" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1290" s="57" t="s">
+      <c r="F1290" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -18758,7 +18755,7 @@
       <c r="E1297" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1297" s="57" t="s">
+      <c r="F1297" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -18835,7 +18832,7 @@
       <c r="E1304" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1304" s="57" t="s">
+      <c r="F1304" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -18912,7 +18909,7 @@
       <c r="E1311" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1311" s="57" t="s">
+      <c r="F1311" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -18989,7 +18986,7 @@
       <c r="E1318" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1318" s="57" t="s">
+      <c r="F1318" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -19066,7 +19063,7 @@
       <c r="E1325" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1325" s="57" t="s">
+      <c r="F1325" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -19143,7 +19140,7 @@
       <c r="E1332" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1332" s="57" t="s">
+      <c r="F1332" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -19220,7 +19217,7 @@
       <c r="E1339" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1339" s="57" t="s">
+      <c r="F1339" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -19297,7 +19294,7 @@
       <c r="E1346" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1346" s="57" t="s">
+      <c r="F1346" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -19374,7 +19371,7 @@
       <c r="E1353" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1353" s="57" t="s">
+      <c r="F1353" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -19451,7 +19448,7 @@
       <c r="E1360" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1360" s="57" t="s">
+      <c r="F1360" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -19528,7 +19525,7 @@
       <c r="E1367" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1367" s="57" t="s">
+      <c r="F1367" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -19605,7 +19602,7 @@
       <c r="E1374" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1374" s="57" t="s">
+      <c r="F1374" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -19682,7 +19679,7 @@
       <c r="E1381" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1381" s="57" t="s">
+      <c r="F1381" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -19759,7 +19756,7 @@
       <c r="E1388" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1388" s="57" t="s">
+      <c r="F1388" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -19836,7 +19833,7 @@
       <c r="E1395" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1395" s="57" t="s">
+      <c r="F1395" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -19913,7 +19910,7 @@
       <c r="E1402" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1402" s="57" t="s">
+      <c r="F1402" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -19990,7 +19987,7 @@
       <c r="E1409" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1409" s="57" t="s">
+      <c r="F1409" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -20067,7 +20064,7 @@
       <c r="E1416" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1416" s="57" t="s">
+      <c r="F1416" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -20144,7 +20141,7 @@
       <c r="E1423" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1423" s="57" t="s">
+      <c r="F1423" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -20221,7 +20218,7 @@
       <c r="E1430" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1430" s="57" t="s">
+      <c r="F1430" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -20298,7 +20295,7 @@
       <c r="E1437" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1437" s="57" t="s">
+      <c r="F1437" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -20375,7 +20372,7 @@
       <c r="E1444" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1444" s="57" t="s">
+      <c r="F1444" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -20452,7 +20449,7 @@
       <c r="E1451" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1451" s="57" t="s">
+      <c r="F1451" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -20529,7 +20526,7 @@
       <c r="E1458" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1458" s="57" t="s">
+      <c r="F1458" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -20606,7 +20603,7 @@
       <c r="E1465" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1465" s="57" t="s">
+      <c r="F1465" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -20683,7 +20680,7 @@
       <c r="E1472" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1472" s="57" t="s">
+      <c r="F1472" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -20760,7 +20757,7 @@
       <c r="E1479" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1479" s="57" t="s">
+      <c r="F1479" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -20837,7 +20834,7 @@
       <c r="E1486" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1486" s="57" t="s">
+      <c r="F1486" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -20914,7 +20911,7 @@
       <c r="E1493" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1493" s="57" t="s">
+      <c r="F1493" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -20991,7 +20988,7 @@
       <c r="E1500" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1500" s="57" t="s">
+      <c r="F1500" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -21068,7 +21065,7 @@
       <c r="E1507" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1507" s="57" t="s">
+      <c r="F1507" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -21145,7 +21142,7 @@
       <c r="E1514" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1514" s="57" t="s">
+      <c r="F1514" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -21222,7 +21219,7 @@
       <c r="E1521" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1521" s="57" t="s">
+      <c r="F1521" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -21299,7 +21296,7 @@
       <c r="E1528" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1528" s="57" t="s">
+      <c r="F1528" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -21376,7 +21373,7 @@
       <c r="E1535" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1535" s="57" t="s">
+      <c r="F1535" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -21453,7 +21450,7 @@
       <c r="E1542" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1542" s="57" t="s">
+      <c r="F1542" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -21530,7 +21527,7 @@
       <c r="E1549" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1549" s="57" t="s">
+      <c r="F1549" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -21607,7 +21604,7 @@
       <c r="E1556" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1556" s="57" t="s">
+      <c r="F1556" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -21664,7 +21661,7 @@
       <c r="E1561" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1561" s="57" t="s">
+      <c r="F1561" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -21721,7 +21718,7 @@
       <c r="E1566" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1566" s="57" t="s">
+      <c r="F1566" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -21778,7 +21775,7 @@
       <c r="E1571" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1571" s="57" t="s">
+      <c r="F1571" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -21835,7 +21832,7 @@
       <c r="E1576" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1576" s="57" t="s">
+      <c r="F1576" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -21912,7 +21909,7 @@
       <c r="E1583" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1583" s="57" t="s">
+      <c r="F1583" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -21989,7 +21986,7 @@
       <c r="E1590" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1590" s="57" t="s">
+      <c r="F1590" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -22066,7 +22063,7 @@
       <c r="E1597" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1597" s="57" t="s">
+      <c r="F1597" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -22143,7 +22140,7 @@
       <c r="E1604" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1604" s="57" t="s">
+      <c r="F1604" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -22220,7 +22217,7 @@
       <c r="E1611" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1611" s="57" t="s">
+      <c r="F1611" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -22297,7 +22294,7 @@
       <c r="E1618" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1618" s="57" t="s">
+      <c r="F1618" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -22374,7 +22371,7 @@
       <c r="E1625" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1625" s="57" t="s">
+      <c r="F1625" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -22451,7 +22448,7 @@
       <c r="E1632" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1632" s="57" t="s">
+      <c r="F1632" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -22528,7 +22525,7 @@
       <c r="E1639" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1639" s="57" t="s">
+      <c r="F1639" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -22605,7 +22602,7 @@
       <c r="E1646" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1646" s="57" t="s">
+      <c r="F1646" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -22682,7 +22679,7 @@
       <c r="E1653" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1653" s="57" t="s">
+      <c r="F1653" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -22759,7 +22756,7 @@
       <c r="E1660" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1660" s="57" t="s">
+      <c r="F1660" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -22836,7 +22833,7 @@
       <c r="E1667" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1667" s="57" t="s">
+      <c r="F1667" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -22913,7 +22910,7 @@
       <c r="E1674" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1674" s="57" t="s">
+      <c r="F1674" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -22980,7 +22977,7 @@
       <c r="E1680" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1680" s="57" t="s">
+      <c r="F1680" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -23057,7 +23054,7 @@
       <c r="E1687" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1687" s="57" t="s">
+      <c r="F1687" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -23134,7 +23131,7 @@
       <c r="E1694" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1694" s="57" t="s">
+      <c r="F1694" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -23211,7 +23208,7 @@
       <c r="E1701" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1701" s="57" t="s">
+      <c r="F1701" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -23288,7 +23285,7 @@
       <c r="E1708" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1708" s="57" t="s">
+      <c r="F1708" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -23365,7 +23362,7 @@
       <c r="E1715" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1715" s="57" t="s">
+      <c r="F1715" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -23442,7 +23439,7 @@
       <c r="E1722" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1722" s="57" t="s">
+      <c r="F1722" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -23519,7 +23516,7 @@
       <c r="E1729" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1729" s="57" t="s">
+      <c r="F1729" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -23596,7 +23593,7 @@
       <c r="E1736" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1736" s="57" t="s">
+      <c r="F1736" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -23673,7 +23670,7 @@
       <c r="E1743" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1743" s="57" t="s">
+      <c r="F1743" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -23750,7 +23747,7 @@
       <c r="E1750" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1750" s="57" t="s">
+      <c r="F1750" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -23827,7 +23824,7 @@
       <c r="E1757" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1757" s="57" t="s">
+      <c r="F1757" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -23904,7 +23901,7 @@
       <c r="E1764" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1764" s="57" t="s">
+      <c r="F1764" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -23981,7 +23978,7 @@
       <c r="E1771" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1771" s="57" t="s">
+      <c r="F1771" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -24058,7 +24055,7 @@
       <c r="E1778" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1778" s="57" t="s">
+      <c r="F1778" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -24135,7 +24132,7 @@
       <c r="E1785" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1785" s="57" t="s">
+      <c r="F1785" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -24212,7 +24209,7 @@
       <c r="E1792" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1792" s="57" t="s">
+      <c r="F1792" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -24289,7 +24286,7 @@
       <c r="E1799" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1799" s="57" t="s">
+      <c r="F1799" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -24366,7 +24363,7 @@
       <c r="E1806" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1806" s="57" t="s">
+      <c r="F1806" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -24443,7 +24440,7 @@
       <c r="E1813" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1813" s="57" t="s">
+      <c r="F1813" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -24520,7 +24517,7 @@
       <c r="E1820" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1820" s="57" t="s">
+      <c r="F1820" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -24597,7 +24594,7 @@
       <c r="E1827" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1827" s="57" t="s">
+      <c r="F1827" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -24674,7 +24671,7 @@
       <c r="E1834" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1834" s="57" t="s">
+      <c r="F1834" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -24751,7 +24748,7 @@
       <c r="E1841" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1841" s="57" t="s">
+      <c r="F1841" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -24828,7 +24825,7 @@
       <c r="E1848" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1848" s="57" t="s">
+      <c r="F1848" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -24905,7 +24902,7 @@
       <c r="E1855" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F1855" s="57" t="s">
+      <c r="F1855" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -24982,7 +24979,7 @@
       <c r="E1862" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1862" s="57" t="s">
+      <c r="F1862" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -25059,7 +25056,7 @@
       <c r="E1869" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F1869" s="57" t="s">
+      <c r="F1869" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -25136,7 +25133,7 @@
       <c r="E1876" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F1876" s="57" t="s">
+      <c r="F1876" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -25213,7 +25210,7 @@
       <c r="E1883" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1883" s="57" t="s">
+      <c r="F1883" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -25270,7 +25267,7 @@
       <c r="E1888" s="2" t="s">
         <v>1055</v>
       </c>
-      <c r="F1888" s="57" t="s">
+      <c r="F1888" s="52" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -25347,7 +25344,7 @@
       <c r="E1895" s="2" t="s">
         <v>993</v>
       </c>
-      <c r="F1895" s="57" t="s">
+      <c r="F1895" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -25464,7 +25461,7 @@
       <c r="E1906" s="2" t="s">
         <v>993</v>
       </c>
-      <c r="F1906" s="60" t="s">
+      <c r="F1906" s="55" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -25484,7 +25481,7 @@
       <c r="D1908" s="19">
         <v>3</v>
       </c>
-      <c r="E1908" s="52" t="s">
+      <c r="E1908" s="56" t="s">
         <v>1017</v>
       </c>
     </row>
@@ -25494,7 +25491,7 @@
       <c r="D1909" s="7">
         <v>4</v>
       </c>
-      <c r="E1909" s="54"/>
+      <c r="E1909" s="58"/>
     </row>
     <row r="1910" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1910" s="34"/>
@@ -25502,7 +25499,7 @@
       <c r="D1910" s="20">
         <v>5</v>
       </c>
-      <c r="E1910" s="53"/>
+      <c r="E1910" s="57"/>
     </row>
     <row r="1911" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1911" s="34"/>
@@ -25510,7 +25507,7 @@
       <c r="D1911" s="19">
         <v>6</v>
       </c>
-      <c r="E1911" s="52" t="s">
+      <c r="E1911" s="56" t="s">
         <v>1018</v>
       </c>
     </row>
@@ -25520,7 +25517,7 @@
       <c r="D1912" s="7">
         <v>7</v>
       </c>
-      <c r="E1912" s="54"/>
+      <c r="E1912" s="58"/>
     </row>
     <row r="1913" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1913" s="34"/>
@@ -25528,7 +25525,7 @@
       <c r="D1913" s="20">
         <v>8</v>
       </c>
-      <c r="E1913" s="53"/>
+      <c r="E1913" s="57"/>
     </row>
     <row r="1914" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1914" s="34"/>
@@ -25536,7 +25533,7 @@
       <c r="D1914" s="7">
         <v>9</v>
       </c>
-      <c r="E1914" s="52" t="s">
+      <c r="E1914" s="56" t="s">
         <v>1019</v>
       </c>
     </row>
@@ -25546,7 +25543,7 @@
       <c r="D1915" s="7">
         <v>10</v>
       </c>
-      <c r="E1915" s="54"/>
+      <c r="E1915" s="58"/>
     </row>
     <row r="1916" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1916" s="34"/>
@@ -25554,7 +25551,7 @@
       <c r="D1916" s="7">
         <v>11</v>
       </c>
-      <c r="E1916" s="55"/>
+      <c r="E1916" s="59"/>
     </row>
     <row r="1917" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1917" s="33" t="s">
@@ -25569,7 +25566,7 @@
       <c r="E1917" s="5" t="s">
         <v>971</v>
       </c>
-      <c r="F1917" s="57" t="s">
+      <c r="F1917" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -25976,7 +25973,7 @@
       <c r="E1957" s="2" t="s">
         <v>992</v>
       </c>
-      <c r="F1957" s="57" t="s">
+      <c r="F1957" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -26103,7 +26100,7 @@
       <c r="E1969" s="5" t="s">
         <v>1021</v>
       </c>
-      <c r="F1969" s="57" t="s">
+      <c r="F1969" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -26207,7 +26204,7 @@
       <c r="D1979" s="4">
         <v>1</v>
       </c>
-      <c r="E1979" s="56" t="s">
+      <c r="E1979" s="60" t="s">
         <v>1034</v>
       </c>
       <c r="F1979" t="s">
@@ -26220,7 +26217,7 @@
       <c r="D1980" s="20">
         <v>2</v>
       </c>
-      <c r="E1980" s="53"/>
+      <c r="E1980" s="57"/>
     </row>
     <row r="1981" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1981" s="36"/>
@@ -26228,7 +26225,7 @@
       <c r="D1981" s="19">
         <v>3</v>
       </c>
-      <c r="E1981" s="52" t="s">
+      <c r="E1981" s="56" t="s">
         <v>1035</v>
       </c>
     </row>
@@ -26238,7 +26235,7 @@
       <c r="D1982" s="7">
         <v>4</v>
       </c>
-      <c r="E1982" s="54"/>
+      <c r="E1982" s="58"/>
     </row>
     <row r="1983" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1983" s="36"/>
@@ -26246,7 +26243,7 @@
       <c r="D1983" s="20">
         <v>5</v>
       </c>
-      <c r="E1983" s="53"/>
+      <c r="E1983" s="57"/>
     </row>
     <row r="1984" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1984" s="36"/>
@@ -26254,7 +26251,7 @@
       <c r="D1984" s="19">
         <v>6</v>
       </c>
-      <c r="E1984" s="52" t="s">
+      <c r="E1984" s="56" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -26264,7 +26261,7 @@
       <c r="D1985" s="20">
         <v>7</v>
       </c>
-      <c r="E1985" s="53"/>
+      <c r="E1985" s="57"/>
     </row>
     <row r="1986" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1986" s="36"/>
@@ -26272,7 +26269,7 @@
       <c r="D1986" s="19">
         <v>8</v>
       </c>
-      <c r="E1986" s="52" t="s">
+      <c r="E1986" s="56" t="s">
         <v>1029</v>
       </c>
     </row>
@@ -26282,7 +26279,7 @@
       <c r="D1987" s="20">
         <v>9</v>
       </c>
-      <c r="E1987" s="53"/>
+      <c r="E1987" s="57"/>
     </row>
     <row r="1988" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1988" s="36"/>
@@ -26307,8 +26304,8 @@
       <c r="E1989" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="F1989" s="60" t="s">
-        <v>1225</v>
+      <c r="F1989" s="55" t="s">
+        <v>1223</v>
       </c>
     </row>
     <row r="1990" spans="2:6" x14ac:dyDescent="0.2">
@@ -26391,7 +26388,7 @@
       <c r="E1996" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F1996" s="59" t="s">
+      <c r="F1996" s="54" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -26614,7 +26611,7 @@
       <c r="E2016" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F2016" s="57" t="s">
+      <c r="F2016" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -27080,7 +27077,7 @@
       <c r="E2057" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F2057" s="57" t="s">
+      <c r="F2057" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -27401,7 +27398,7 @@
       <c r="E2087" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F2087" s="57" t="s">
+      <c r="F2087" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -28686,7 +28683,7 @@
       <c r="E2205" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F2205" s="57" t="s">
+      <c r="F2205" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -28743,7 +28740,7 @@
       <c r="E2210" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F2210" s="57" t="s">
+      <c r="F2210" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -28780,7 +28777,7 @@
       <c r="E2213" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F2213" s="57" t="s">
+      <c r="F2213" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -28847,7 +28844,7 @@
       <c r="E2219" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F2219" s="57" t="s">
+      <c r="F2219" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -29232,7 +29229,7 @@
       <c r="E2254" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F2254" s="57" t="s">
+      <c r="F2254" s="52" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -29343,6 +29340,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101004F7AABC398522B40A32DAEEC36E85685" ma:contentTypeVersion="0" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fcd56fbdc9ca50fa66f2b7c9cf7a93ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="246f02dd96380beb4f7cdcce14d77fd6">
     <xsd:element name="properties">
@@ -29391,15 +29397,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDBE20A7-1A06-4982-8E6C-B0692E74AD85}">
   <ds:schemaRefs>
@@ -29415,6 +29412,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE3EA3FA-F7A9-4EB1-BDA9-02346FC3DB01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BABB9296-97A3-46A1-A889-43BF8783A394}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29427,12 +29432,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE3EA3FA-F7A9-4EB1-BDA9-02346FC3DB01}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DIAS Attributes - Values 2017.xlsx
+++ b/DIAS Attributes - Values 2017.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nareshsharma/Documents/repos/udacity-capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB038DB-F3EB-A948-9C8C-CA1F55344A50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A17FBE9-A2D0-DF43-8ADF-7236D0F580F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -3748,7 +3748,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3758,6 +3758,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3983,7 +3989,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4093,6 +4099,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4431,10 +4445,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:F2260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1973" workbookViewId="0">
-      <selection activeCell="G1992" sqref="G1992"/>
+    <sheetView tabSelected="1" topLeftCell="A2199" zoomScale="139" workbookViewId="0">
+      <selection activeCell="D2221" sqref="D2221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4534,7 +4549,7 @@
         <v>252</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
@@ -4587,7 +4602,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" s="33" t="s">
         <v>23</v>
       </c>
@@ -4851,7 +4866,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="33" t="s">
         <v>25</v>
       </c>
@@ -4868,7 +4883,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="33" t="s">
         <v>26</v>
       </c>
@@ -4885,7 +4900,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="33" t="s">
         <v>27</v>
       </c>
@@ -4902,7 +4917,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="33" t="s">
         <v>28</v>
       </c>
@@ -4933,7 +4948,7 @@
         <v>252</v>
       </c>
       <c r="F43" s="52" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
@@ -5957,7 +5972,7 @@
         <v>287</v>
       </c>
       <c r="F141" s="52" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.2">
@@ -6034,7 +6049,7 @@
         <v>287</v>
       </c>
       <c r="F148" s="52" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.2">
@@ -6699,7 +6714,7 @@
         <v>795</v>
       </c>
       <c r="F209" s="52" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="210" spans="2:6" x14ac:dyDescent="0.2">
@@ -7514,7 +7529,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B284" s="33" t="s">
         <v>339</v>
       </c>
@@ -7528,7 +7543,7 @@
         <v>309</v>
       </c>
       <c r="F284" s="52" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="285" spans="2:6" x14ac:dyDescent="0.2">
@@ -7603,7 +7618,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B292" s="33" t="s">
         <v>341</v>
       </c>
@@ -7617,7 +7632,7 @@
         <v>309</v>
       </c>
       <c r="F292" s="52" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="293" spans="2:6" x14ac:dyDescent="0.2">
@@ -7692,7 +7707,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="300" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B300" s="33" t="s">
         <v>343</v>
       </c>
@@ -7706,7 +7721,7 @@
         <v>309</v>
       </c>
       <c r="F300" s="52" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="301" spans="2:6" x14ac:dyDescent="0.2">
@@ -7781,7 +7796,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B308" s="33" t="s">
         <v>102</v>
       </c>
@@ -7858,7 +7873,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="315" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B315" s="33" t="s">
         <v>103</v>
       </c>
@@ -7935,7 +7950,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="322" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B322" s="40" t="s">
         <v>104</v>
       </c>
@@ -7949,7 +7964,7 @@
         <v>296</v>
       </c>
       <c r="F322" s="52" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="323" spans="2:6" x14ac:dyDescent="0.2">
@@ -8042,7 +8057,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="332" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B332" s="40" t="s">
         <v>105</v>
       </c>
@@ -8056,7 +8071,7 @@
         <v>296</v>
       </c>
       <c r="F332" s="53" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="333" spans="2:6" x14ac:dyDescent="0.2">
@@ -8149,7 +8164,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="342" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B342" s="40" t="s">
         <v>106</v>
       </c>
@@ -8163,7 +8178,7 @@
         <v>296</v>
       </c>
       <c r="F342" s="53" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="343" spans="2:6" x14ac:dyDescent="0.2">
@@ -8256,7 +8271,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="352" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B352" s="40" t="s">
         <v>107</v>
       </c>
@@ -8373,7 +8388,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="363" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B363" s="33" t="s">
         <v>351</v>
       </c>
@@ -8387,7 +8402,7 @@
         <v>309</v>
       </c>
       <c r="F363" s="52" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="364" spans="2:6" x14ac:dyDescent="0.2">
@@ -8462,7 +8477,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="371" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B371" s="33" t="s">
         <v>352</v>
       </c>
@@ -8476,7 +8491,7 @@
         <v>309</v>
       </c>
       <c r="F371" s="52" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="372" spans="2:6" x14ac:dyDescent="0.2">
@@ -8551,7 +8566,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="379" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B379" s="33" t="s">
         <v>356</v>
       </c>
@@ -8565,7 +8580,7 @@
         <v>309</v>
       </c>
       <c r="F379" s="52" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="380" spans="2:6" x14ac:dyDescent="0.2">
@@ -8784,7 +8799,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="400" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B400" s="36"/>
       <c r="C400" s="6"/>
       <c r="D400" s="7">
@@ -8794,7 +8809,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="401" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B401" s="33" t="s">
         <v>360</v>
       </c>
@@ -8808,7 +8823,7 @@
         <v>309</v>
       </c>
       <c r="F401" s="52" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="402" spans="2:6" x14ac:dyDescent="0.2">
@@ -8883,7 +8898,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="409" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B409" s="33" t="s">
         <v>361</v>
       </c>
@@ -8897,7 +8912,7 @@
         <v>309</v>
       </c>
       <c r="F409" s="52" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="410" spans="2:6" x14ac:dyDescent="0.2">
@@ -8972,7 +8987,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="417" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B417" s="36" t="s">
         <v>1173</v>
       </c>
@@ -8986,7 +9001,7 @@
         <v>309</v>
       </c>
       <c r="F417" s="52" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="418" spans="2:6" x14ac:dyDescent="0.2">
@@ -9061,7 +9076,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="425" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B425" s="33" t="s">
         <v>362</v>
       </c>
@@ -9075,7 +9090,7 @@
         <v>309</v>
       </c>
       <c r="F425" s="52" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="426" spans="2:6" x14ac:dyDescent="0.2">
@@ -9150,7 +9165,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="433" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B433" s="33" t="s">
         <v>368</v>
       </c>
@@ -9164,7 +9179,7 @@
         <v>309</v>
       </c>
       <c r="F433" s="52" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="434" spans="2:6" x14ac:dyDescent="0.2">
@@ -9239,7 +9254,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="441" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="441" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B441" s="33" t="s">
         <v>369</v>
       </c>
@@ -9253,7 +9268,7 @@
         <v>309</v>
       </c>
       <c r="F441" s="52" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="442" spans="2:6" x14ac:dyDescent="0.2">
@@ -9328,7 +9343,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="449" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="449" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B449" s="33" t="s">
         <v>370</v>
       </c>
@@ -9342,7 +9357,7 @@
         <v>309</v>
       </c>
       <c r="F449" s="52" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="450" spans="2:6" x14ac:dyDescent="0.2">
@@ -9417,7 +9432,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="457" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="457" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B457" s="33" t="s">
         <v>371</v>
       </c>
@@ -9431,7 +9446,7 @@
         <v>309</v>
       </c>
       <c r="F457" s="52" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="458" spans="2:6" x14ac:dyDescent="0.2">
@@ -9506,7 +9521,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="465" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="465" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B465" s="33" t="s">
         <v>372</v>
       </c>
@@ -9520,7 +9535,7 @@
         <v>309</v>
       </c>
       <c r="F465" s="52" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="466" spans="2:6" x14ac:dyDescent="0.2">
@@ -9595,7 +9610,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="473" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="473" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B473" s="33" t="s">
         <v>374</v>
       </c>
@@ -9609,7 +9624,7 @@
         <v>309</v>
       </c>
       <c r="F473" s="52" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="474" spans="2:6" x14ac:dyDescent="0.2">
@@ -9684,7 +9699,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="481" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="481" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B481" s="33" t="s">
         <v>108</v>
       </c>
@@ -9698,7 +9713,7 @@
         <v>287</v>
       </c>
       <c r="F481" s="52" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="482" spans="2:6" x14ac:dyDescent="0.2">
@@ -9761,7 +9776,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="488" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="488" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B488" s="33" t="s">
         <v>109</v>
       </c>
@@ -9775,7 +9790,7 @@
         <v>287</v>
       </c>
       <c r="F488" s="52" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="489" spans="2:6" x14ac:dyDescent="0.2">
@@ -9838,7 +9853,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="495" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="495" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B495" s="33" t="s">
         <v>110</v>
       </c>
@@ -9852,7 +9867,7 @@
         <v>296</v>
       </c>
       <c r="F495" s="52" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="496" spans="2:6" x14ac:dyDescent="0.2">
@@ -9945,7 +9960,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="505" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="505" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B505" s="33" t="s">
         <v>378</v>
       </c>
@@ -9959,7 +9974,7 @@
         <v>309</v>
       </c>
       <c r="F505" s="52" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="506" spans="2:6" x14ac:dyDescent="0.2">
@@ -10034,7 +10049,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="513" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="513" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B513" s="33" t="s">
         <v>111</v>
       </c>
@@ -10048,7 +10063,7 @@
         <v>296</v>
       </c>
       <c r="F513" s="52" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="514" spans="2:6" x14ac:dyDescent="0.2">
@@ -10141,7 +10156,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="523" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="523" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B523" s="33" t="s">
         <v>112</v>
       </c>
@@ -10155,7 +10170,7 @@
         <v>296</v>
       </c>
       <c r="F523" s="52" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="524" spans="2:6" x14ac:dyDescent="0.2">
@@ -10248,7 +10263,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="533" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="533" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B533" s="33" t="s">
         <v>382</v>
       </c>
@@ -10262,7 +10277,7 @@
         <v>309</v>
       </c>
       <c r="F533" s="52" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="534" spans="2:6" x14ac:dyDescent="0.2">
@@ -10337,7 +10352,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="541" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="541" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B541" s="33" t="s">
         <v>384</v>
       </c>
@@ -10351,7 +10366,7 @@
         <v>309</v>
       </c>
       <c r="F541" s="52" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="542" spans="2:6" x14ac:dyDescent="0.2">
@@ -10426,7 +10441,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="549" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="549" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B549" s="33" t="s">
         <v>113</v>
       </c>
@@ -10503,7 +10518,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="556" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="556" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B556" s="33" t="s">
         <v>114</v>
       </c>
@@ -10580,7 +10595,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="563" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="563" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B563" s="33" t="s">
         <v>115</v>
       </c>
@@ -10594,7 +10609,7 @@
         <v>296</v>
       </c>
       <c r="F563" s="52" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="564" spans="2:6" x14ac:dyDescent="0.2">
@@ -10687,7 +10702,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="573" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="573" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B573" s="33" t="s">
         <v>116</v>
       </c>
@@ -10701,7 +10716,7 @@
         <v>296</v>
       </c>
       <c r="F573" s="52" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="574" spans="2:6" x14ac:dyDescent="0.2">
@@ -10794,7 +10809,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="583" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="583" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B583" s="33" t="s">
         <v>117</v>
       </c>
@@ -10808,7 +10823,7 @@
         <v>296</v>
       </c>
       <c r="F583" s="52" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="584" spans="2:6" x14ac:dyDescent="0.2">
@@ -10901,7 +10916,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="593" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="593" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B593" s="33" t="s">
         <v>118</v>
       </c>
@@ -11018,7 +11033,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="604" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="604" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B604" s="33" t="s">
         <v>392</v>
       </c>
@@ -11032,7 +11047,7 @@
         <v>309</v>
       </c>
       <c r="F604" s="52" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="605" spans="2:6" x14ac:dyDescent="0.2">
@@ -11107,7 +11122,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="612" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="612" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B612" s="33" t="s">
         <v>394</v>
       </c>
@@ -11121,7 +11136,7 @@
         <v>309</v>
       </c>
       <c r="F612" s="52" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="613" spans="2:6" x14ac:dyDescent="0.2">
@@ -11196,7 +11211,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="620" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="620" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B620" s="33" t="s">
         <v>119</v>
       </c>
@@ -11273,7 +11288,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="627" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="627" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B627" s="33" t="s">
         <v>120</v>
       </c>
@@ -11350,7 +11365,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="634" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="634" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B634" s="33" t="s">
         <v>398</v>
       </c>
@@ -11364,7 +11379,7 @@
         <v>309</v>
       </c>
       <c r="F634" s="52" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="635" spans="2:6" x14ac:dyDescent="0.2">
@@ -11439,7 +11454,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="642" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="642" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B642" s="33" t="s">
         <v>399</v>
       </c>
@@ -11453,7 +11468,7 @@
         <v>309</v>
       </c>
       <c r="F642" s="52" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="643" spans="2:6" x14ac:dyDescent="0.2">
@@ -11528,7 +11543,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="650" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="650" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B650" s="33" t="s">
         <v>124</v>
       </c>
@@ -11682,7 +11697,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="664" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="664" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B664" s="33" t="s">
         <v>126</v>
       </c>
@@ -11749,7 +11764,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="670" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="670" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B670" s="33" t="s">
         <v>127</v>
       </c>
@@ -11816,7 +11831,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="676" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="676" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B676" s="33" t="s">
         <v>128</v>
       </c>
@@ -11883,7 +11898,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="682" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="682" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B682" s="33" t="s">
         <v>129</v>
       </c>
@@ -11950,7 +11965,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="688" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="688" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B688" s="33" t="s">
         <v>130</v>
       </c>
@@ -12017,7 +12032,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="694" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="694" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B694" s="33" t="s">
         <v>131</v>
       </c>
@@ -12238,7 +12253,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="714" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="2:6" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B714" s="33" t="s">
         <v>424</v>
       </c>
@@ -12382,7 +12397,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="727" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="727" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B727" s="33" t="s">
         <v>133</v>
       </c>
@@ -12662,7 +12677,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="752" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="752" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B752" s="33" t="s">
         <v>137</v>
       </c>
@@ -12739,7 +12754,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="759" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="759" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B759" s="33" t="s">
         <v>138</v>
       </c>
@@ -12836,7 +12851,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="768" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="768" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B768" s="34" t="s">
         <v>139</v>
       </c>
@@ -12903,7 +12918,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="774" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="774" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B774" s="34" t="s">
         <v>140</v>
       </c>
@@ -12970,7 +12985,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="780" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="780" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B780" s="34" t="s">
         <v>141</v>
       </c>
@@ -13037,7 +13052,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="786" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="786" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B786" s="34" t="s">
         <v>142</v>
       </c>
@@ -13114,7 +13129,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="793" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="793" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B793" s="34" t="s">
         <v>143</v>
       </c>
@@ -13171,7 +13186,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="798" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="798" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B798" s="33" t="s">
         <v>144</v>
       </c>
@@ -13238,7 +13253,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="804" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="804" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B804" s="33" t="s">
         <v>145</v>
       </c>
@@ -13305,7 +13320,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="810" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="810" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B810" s="33" t="s">
         <v>146</v>
       </c>
@@ -13362,7 +13377,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="815" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="815" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B815" s="33" t="s">
         <v>147</v>
       </c>
@@ -13409,7 +13424,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="819" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="819" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B819" s="34" t="s">
         <v>148</v>
       </c>
@@ -13476,7 +13491,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="825" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="825" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B825" s="34" t="s">
         <v>149</v>
       </c>
@@ -13543,7 +13558,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="831" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="831" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B831" s="34" t="s">
         <v>150</v>
       </c>
@@ -13610,7 +13625,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="837" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="837" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B837" s="34" t="s">
         <v>151</v>
       </c>
@@ -13677,7 +13692,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="843" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="843" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B843" s="34" t="s">
         <v>152</v>
       </c>
@@ -13744,7 +13759,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="849" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="849" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B849" s="34" t="s">
         <v>153</v>
       </c>
@@ -13811,7 +13826,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="855" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="855" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B855" s="34" t="s">
         <v>154</v>
       </c>
@@ -13878,7 +13893,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="861" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="861" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B861" s="34" t="s">
         <v>155</v>
       </c>
@@ -13945,7 +13960,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="867" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="867" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B867" s="34" t="s">
         <v>156</v>
       </c>
@@ -14012,7 +14027,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="873" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="873" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B873" s="34" t="s">
         <v>157</v>
       </c>
@@ -14089,7 +14104,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="880" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="880" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B880" s="34" t="s">
         <v>158</v>
       </c>
@@ -14166,7 +14181,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="887" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="887" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B887" s="34" t="s">
         <v>159</v>
       </c>
@@ -14243,7 +14258,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="894" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="894" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B894" s="34" t="s">
         <v>160</v>
       </c>
@@ -14320,7 +14335,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="901" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="901" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B901" s="34" t="s">
         <v>161</v>
       </c>
@@ -14397,7 +14412,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="908" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="908" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B908" s="34" t="s">
         <v>162</v>
       </c>
@@ -14464,7 +14479,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="914" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="914" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B914" s="34" t="s">
         <v>163</v>
       </c>
@@ -14531,7 +14546,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="920" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="920" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B920" s="34" t="s">
         <v>164</v>
       </c>
@@ -14598,7 +14613,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="926" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="926" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B926" s="34" t="s">
         <v>165</v>
       </c>
@@ -14665,7 +14680,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="932" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="932" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B932" s="34" t="s">
         <v>166</v>
       </c>
@@ -14732,7 +14747,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="938" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="938" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B938" s="34" t="s">
         <v>167</v>
       </c>
@@ -14779,7 +14794,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="942" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="942" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B942" s="34" t="s">
         <v>168</v>
       </c>
@@ -14826,7 +14841,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="946" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="946" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B946" s="34" t="s">
         <v>169</v>
       </c>
@@ -14873,7 +14888,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="950" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="950" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B950" s="34" t="s">
         <v>170</v>
       </c>
@@ -14920,7 +14935,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="954" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="954" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B954" s="34" t="s">
         <v>171</v>
       </c>
@@ -14987,7 +15002,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="960" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="960" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B960" s="34" t="s">
         <v>172</v>
       </c>
@@ -15054,7 +15069,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="966" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="966" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B966" s="34" t="s">
         <v>173</v>
       </c>
@@ -15121,7 +15136,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="972" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="972" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B972" s="34" t="s">
         <v>174</v>
       </c>
@@ -15188,7 +15203,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="978" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="978" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B978" s="34" t="s">
         <v>175</v>
       </c>
@@ -15312,7 +15327,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="989" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="989" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B989" s="34" t="s">
         <v>181</v>
       </c>
@@ -15326,7 +15341,7 @@
         <v>252</v>
       </c>
       <c r="F989" s="52" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="990" spans="2:6" x14ac:dyDescent="0.2">
@@ -15369,7 +15384,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="994" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="994" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B994" s="34" t="s">
         <v>182</v>
       </c>
@@ -15383,7 +15398,7 @@
         <v>252</v>
       </c>
       <c r="F994" s="52" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="995" spans="2:6" x14ac:dyDescent="0.2">
@@ -15416,7 +15431,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="998" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="998" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B998" s="34" t="s">
         <v>183</v>
       </c>
@@ -15483,7 +15498,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1004" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1004" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1004" s="34" t="s">
         <v>184</v>
       </c>
@@ -15550,7 +15565,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1010" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1010" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1010" s="34" t="s">
         <v>185</v>
       </c>
@@ -15617,7 +15632,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1016" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1016" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1016" s="34" t="s">
         <v>186</v>
       </c>
@@ -15694,7 +15709,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1023" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1023" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1023" s="34" t="s">
         <v>187</v>
       </c>
@@ -15751,20 +15766,20 @@
         <v>254</v>
       </c>
     </row>
-    <row r="1028" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1028" s="34" t="s">
+    <row r="1028" spans="2:6" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1028" s="61" t="s">
         <v>188</v>
       </c>
-      <c r="C1028" s="6" t="s">
+      <c r="C1028" s="62" t="s">
         <v>1221</v>
       </c>
-      <c r="D1028" s="15" t="s">
+      <c r="D1028" s="63" t="s">
         <v>815</v>
       </c>
-      <c r="E1028" s="31" t="s">
+      <c r="E1028" s="64" t="s">
         <v>252</v>
       </c>
-      <c r="F1028" s="52" t="s">
+      <c r="F1028" s="65" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -15818,7 +15833,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="1034" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1034" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1034" s="34" t="s">
         <v>189</v>
       </c>
@@ -15832,7 +15847,7 @@
         <v>252</v>
       </c>
       <c r="F1034" s="52" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1035" spans="2:6" x14ac:dyDescent="0.2">
@@ -15875,7 +15890,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="1039" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1039" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1039" s="34" t="s">
         <v>190</v>
       </c>
@@ -15932,7 +15947,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="1044" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1044" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1044" s="34" t="s">
         <v>191</v>
       </c>
@@ -15989,7 +16004,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="1049" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1049" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1049" s="34" t="s">
         <v>192</v>
       </c>
@@ -16056,7 +16071,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="1055" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1055" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1055" s="34" t="s">
         <v>193</v>
       </c>
@@ -16113,7 +16128,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="1060" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1060" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1060" s="34"/>
       <c r="C1060" s="6"/>
       <c r="D1060" s="7">
@@ -16123,7 +16138,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1061" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1061" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1061" s="33" t="s">
         <v>194</v>
       </c>
@@ -16190,7 +16205,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1067" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1067" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1067" s="34" t="s">
         <v>195</v>
       </c>
@@ -16257,7 +16272,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1073" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1073" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1073" s="34" t="s">
         <v>196</v>
       </c>
@@ -16314,7 +16329,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="1078" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1078" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1078" s="34"/>
       <c r="C1078" s="6"/>
       <c r="D1078" s="7">
@@ -16324,7 +16339,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="1079" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1079" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1079" s="33" t="s">
         <v>197</v>
       </c>
@@ -16361,7 +16376,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="1082" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1082" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1082" s="34" t="s">
         <v>198</v>
       </c>
@@ -16408,7 +16423,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="1086" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1086" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1086" s="34"/>
       <c r="C1086" s="6"/>
       <c r="D1086" s="7">
@@ -16418,7 +16433,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="1087" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1087" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1087" s="33" t="s">
         <v>199</v>
       </c>
@@ -16475,7 +16490,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="1092" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1092" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1092" s="34" t="s">
         <v>200</v>
       </c>
@@ -16532,7 +16547,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="1097" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1097" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1097" s="34" t="s">
         <v>201</v>
       </c>
@@ -16589,7 +16604,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="1102" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1102" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1102" s="34"/>
       <c r="C1102" s="6"/>
       <c r="D1102" s="7">
@@ -16599,7 +16614,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1103" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1103" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1103" s="33" t="s">
         <v>202</v>
       </c>
@@ -16666,7 +16681,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1109" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1109" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1109" s="34" t="s">
         <v>203</v>
       </c>
@@ -16743,7 +16758,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1116" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1116" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1116" s="34" t="s">
         <v>204</v>
       </c>
@@ -16800,7 +16815,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="1121" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1121" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1121" s="34"/>
       <c r="C1121" s="6"/>
       <c r="D1121" s="7">
@@ -16810,7 +16825,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1122" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1122" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1122" s="33" t="s">
         <v>205</v>
       </c>
@@ -16867,7 +16882,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="1127" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1127" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1127" s="34"/>
       <c r="C1127" s="6"/>
       <c r="D1127" s="7">
@@ -16877,7 +16892,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1128" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1128" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1128" s="33" t="s">
         <v>206</v>
       </c>
@@ -16944,7 +16959,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="1134" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1134" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1134" s="34"/>
       <c r="C1134" s="6"/>
       <c r="D1134" s="7">
@@ -16954,7 +16969,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1135" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1135" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1135" s="33" t="s">
         <v>207</v>
       </c>
@@ -17031,7 +17046,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1142" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1142" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1142" s="33" t="s">
         <v>817</v>
       </c>
@@ -17108,7 +17123,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1149" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1149" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1149" s="34" t="s">
         <v>818</v>
       </c>
@@ -17185,7 +17200,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1156" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1156" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1156" s="33" t="s">
         <v>819</v>
       </c>
@@ -17262,7 +17277,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1163" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1163" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1163" s="33" t="s">
         <v>820</v>
       </c>
@@ -17339,7 +17354,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1170" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1170" spans="2:6" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1170" s="38" t="s">
         <v>821</v>
       </c>
@@ -17356,7 +17371,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="1171" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1171" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1171" s="33" t="s">
         <v>822</v>
       </c>
@@ -17433,7 +17448,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1178" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1178" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1178" s="33" t="s">
         <v>823</v>
       </c>
@@ -17510,7 +17525,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1185" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1185" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1185" s="33" t="s">
         <v>824</v>
       </c>
@@ -17587,7 +17602,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1192" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1192" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1192" s="33" t="s">
         <v>825</v>
       </c>
@@ -17664,7 +17679,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1199" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1199" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1199" s="34" t="s">
         <v>826</v>
       </c>
@@ -17741,7 +17756,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1206" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1206" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1206" s="33" t="s">
         <v>827</v>
       </c>
@@ -17818,7 +17833,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1213" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1213" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1213" s="34" t="s">
         <v>828</v>
       </c>
@@ -17895,7 +17910,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1220" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1220" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1220" s="33" t="s">
         <v>829</v>
       </c>
@@ -17972,7 +17987,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1227" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1227" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1227" s="33" t="s">
         <v>830</v>
       </c>
@@ -18039,7 +18054,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="1233" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1233" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1233" s="34"/>
       <c r="C1233" s="6"/>
       <c r="D1233" s="7">
@@ -18049,7 +18064,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1234" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1234" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1234" s="33" t="s">
         <v>834</v>
       </c>
@@ -18126,7 +18141,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1241" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1241" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1241" s="34" t="s">
         <v>835</v>
       </c>
@@ -18203,7 +18218,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1248" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1248" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1248" s="34" t="s">
         <v>836</v>
       </c>
@@ -18280,7 +18295,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1255" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1255" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1255" s="34" t="s">
         <v>837</v>
       </c>
@@ -18357,7 +18372,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1262" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1262" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1262" s="34" t="s">
         <v>839</v>
       </c>
@@ -18434,7 +18449,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1269" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1269" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1269" s="34" t="s">
         <v>843</v>
       </c>
@@ -18511,7 +18526,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1276" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1276" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1276" s="34" t="s">
         <v>845</v>
       </c>
@@ -18588,7 +18603,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1283" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1283" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1283" s="34" t="s">
         <v>848</v>
       </c>
@@ -18665,7 +18680,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1290" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1290" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1290" s="34" t="s">
         <v>850</v>
       </c>
@@ -18742,7 +18757,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1297" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1297" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1297" s="34" t="s">
         <v>852</v>
       </c>
@@ -18819,7 +18834,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1304" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1304" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1304" s="34" t="s">
         <v>853</v>
       </c>
@@ -18896,7 +18911,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1311" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1311" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1311" s="34" t="s">
         <v>856</v>
       </c>
@@ -18973,7 +18988,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1318" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1318" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1318" s="34" t="s">
         <v>858</v>
       </c>
@@ -19050,7 +19065,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1325" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1325" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1325" s="33" t="s">
         <v>1197</v>
       </c>
@@ -19127,7 +19142,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1332" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1332" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1332" s="33" t="s">
         <v>1200</v>
       </c>
@@ -19204,7 +19219,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1339" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1339" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1339" s="33" t="s">
         <v>859</v>
       </c>
@@ -19281,7 +19296,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1346" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1346" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1346" s="33" t="s">
         <v>860</v>
       </c>
@@ -19358,7 +19373,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1353" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1353" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1353" s="33" t="s">
         <v>1175</v>
       </c>
@@ -19435,7 +19450,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1360" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1360" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1360" s="33" t="s">
         <v>1178</v>
       </c>
@@ -19512,7 +19527,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1367" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1367" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1367" s="34" t="s">
         <v>1179</v>
       </c>
@@ -19579,7 +19594,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="1373" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1373" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1373" s="34"/>
       <c r="C1373" s="6"/>
       <c r="D1373" s="7">
@@ -19589,7 +19604,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1374" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1374" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1374" s="33" t="s">
         <v>1181</v>
       </c>
@@ -19666,7 +19681,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1381" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1381" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1381" s="33" t="s">
         <v>1183</v>
       </c>
@@ -19743,7 +19758,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1388" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1388" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1388" s="33" t="s">
         <v>1186</v>
       </c>
@@ -19820,7 +19835,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1395" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1395" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1395" s="33" t="s">
         <v>1188</v>
       </c>
@@ -19897,7 +19912,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1402" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1402" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1402" s="33" t="s">
         <v>1190</v>
       </c>
@@ -19974,7 +19989,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1409" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1409" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1409" s="33" t="s">
         <v>1192</v>
       </c>
@@ -20051,7 +20066,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1416" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1416" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1416" s="33" t="s">
         <v>1194</v>
       </c>
@@ -20128,7 +20143,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1423" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1423" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1423" s="33" t="s">
         <v>1196</v>
       </c>
@@ -20205,7 +20220,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1430" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1430" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1430" s="33" t="s">
         <v>861</v>
       </c>
@@ -20282,7 +20297,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1437" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1437" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1437" s="33" t="s">
         <v>862</v>
       </c>
@@ -20359,7 +20374,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1444" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1444" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1444" s="33" t="s">
         <v>863</v>
       </c>
@@ -20436,7 +20451,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1451" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1451" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1451" s="33" t="s">
         <v>864</v>
       </c>
@@ -20513,7 +20528,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1458" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1458" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1458" s="33" t="s">
         <v>865</v>
       </c>
@@ -20590,7 +20605,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1465" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1465" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1465" s="33" t="s">
         <v>866</v>
       </c>
@@ -20667,7 +20682,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1472" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1472" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1472" s="33" t="s">
         <v>868</v>
       </c>
@@ -20744,7 +20759,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1479" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1479" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1479" s="33" t="s">
         <v>869</v>
       </c>
@@ -20821,7 +20836,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1486" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1486" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1486" s="33" t="s">
         <v>871</v>
       </c>
@@ -20898,7 +20913,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1493" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1493" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1493" s="33" t="s">
         <v>875</v>
       </c>
@@ -20975,7 +20990,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1500" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1500" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1500" s="33" t="s">
         <v>876</v>
       </c>
@@ -21052,7 +21067,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1507" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1507" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1507" s="33" t="s">
         <v>877</v>
       </c>
@@ -21129,7 +21144,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1514" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1514" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1514" s="33" t="s">
         <v>879</v>
       </c>
@@ -21206,7 +21221,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1521" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1521" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1521" s="33" t="s">
         <v>881</v>
       </c>
@@ -21283,7 +21298,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1528" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1528" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1528" s="33" t="s">
         <v>882</v>
       </c>
@@ -21360,7 +21375,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1535" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1535" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1535" s="33" t="s">
         <v>883</v>
       </c>
@@ -21437,7 +21452,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1542" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1542" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1542" s="33" t="s">
         <v>884</v>
       </c>
@@ -21514,7 +21529,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1549" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1549" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1549" s="34" t="s">
         <v>885</v>
       </c>
@@ -21591,7 +21606,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1556" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1556" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1556" s="33" t="s">
         <v>886</v>
       </c>
@@ -21648,7 +21663,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="1561" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1561" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1561" s="33" t="s">
         <v>887</v>
       </c>
@@ -21705,7 +21720,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="1566" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1566" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1566" s="33" t="s">
         <v>888</v>
       </c>
@@ -21762,7 +21777,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="1571" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1571" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1571" s="33" t="s">
         <v>889</v>
       </c>
@@ -21819,7 +21834,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="1576" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1576" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1576" s="33" t="s">
         <v>890</v>
       </c>
@@ -21896,7 +21911,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1583" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1583" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1583" s="33" t="s">
         <v>891</v>
       </c>
@@ -21973,7 +21988,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1590" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1590" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1590" s="33" t="s">
         <v>893</v>
       </c>
@@ -22050,7 +22065,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1597" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1597" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1597" s="33" t="s">
         <v>896</v>
       </c>
@@ -22127,7 +22142,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1604" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1604" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1604" s="33" t="s">
         <v>901</v>
       </c>
@@ -22204,7 +22219,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1611" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1611" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1611" s="33" t="s">
         <v>898</v>
       </c>
@@ -22281,7 +22296,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1618" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1618" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1618" s="33" t="s">
         <v>912</v>
       </c>
@@ -22358,7 +22373,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1625" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1625" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1625" s="33" t="s">
         <v>903</v>
       </c>
@@ -22435,7 +22450,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1632" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1632" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1632" s="33" t="s">
         <v>905</v>
       </c>
@@ -22512,7 +22527,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1639" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1639" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1639" s="33" t="s">
         <v>907</v>
       </c>
@@ -22589,7 +22604,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1646" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1646" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1646" s="33" t="s">
         <v>909</v>
       </c>
@@ -22666,7 +22681,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1653" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1653" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1653" s="33" t="s">
         <v>911</v>
       </c>
@@ -22743,7 +22758,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1660" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1660" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1660" s="33" t="s">
         <v>913</v>
       </c>
@@ -22820,7 +22835,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1667" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1667" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1667" s="33" t="s">
         <v>914</v>
       </c>
@@ -22897,7 +22912,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1674" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1674" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1674" s="33" t="s">
         <v>915</v>
       </c>
@@ -22964,7 +22979,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="1680" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1680" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1680" s="33" t="s">
         <v>916</v>
       </c>
@@ -23041,7 +23056,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1687" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1687" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1687" s="33" t="s">
         <v>917</v>
       </c>
@@ -23118,7 +23133,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1694" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1694" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1694" s="33" t="s">
         <v>918</v>
       </c>
@@ -23195,7 +23210,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1701" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1701" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1701" s="33" t="s">
         <v>919</v>
       </c>
@@ -23272,7 +23287,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1708" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1708" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1708" s="33" t="s">
         <v>920</v>
       </c>
@@ -23349,7 +23364,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1715" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1715" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1715" s="33" t="s">
         <v>921</v>
       </c>
@@ -23426,7 +23441,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1722" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1722" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1722" s="33" t="s">
         <v>922</v>
       </c>
@@ -23503,7 +23518,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1729" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1729" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1729" s="33" t="s">
         <v>923</v>
       </c>
@@ -23580,7 +23595,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1736" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1736" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1736" s="34" t="s">
         <v>924</v>
       </c>
@@ -23647,7 +23662,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="1742" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1742" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1742" s="34"/>
       <c r="C1742" s="6"/>
       <c r="D1742" s="7">
@@ -23657,7 +23672,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1743" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1743" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1743" s="33" t="s">
         <v>925</v>
       </c>
@@ -23734,7 +23749,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1750" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1750" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1750" s="33" t="s">
         <v>1205</v>
       </c>
@@ -23811,7 +23826,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1757" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1757" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1757" s="33" t="s">
         <v>926</v>
       </c>
@@ -23888,7 +23903,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1764" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1764" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1764" s="34" t="s">
         <v>927</v>
       </c>
@@ -23965,7 +23980,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1771" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1771" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1771" s="33" t="s">
         <v>928</v>
       </c>
@@ -24042,7 +24057,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1778" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1778" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1778" s="34" t="s">
         <v>929</v>
       </c>
@@ -24119,7 +24134,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1785" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1785" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1785" s="33" t="s">
         <v>930</v>
       </c>
@@ -24196,7 +24211,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1792" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1792" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1792" s="34" t="s">
         <v>931</v>
       </c>
@@ -24273,7 +24288,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1799" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1799" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1799" s="33" t="s">
         <v>932</v>
       </c>
@@ -24350,7 +24365,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1806" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1806" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1806" s="34" t="s">
         <v>933</v>
       </c>
@@ -24427,7 +24442,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1813" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1813" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1813" s="33" t="s">
         <v>934</v>
       </c>
@@ -24504,7 +24519,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1820" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1820" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1820" s="33" t="s">
         <v>935</v>
       </c>
@@ -24581,7 +24596,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1827" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1827" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1827" s="34" t="s">
         <v>936</v>
       </c>
@@ -24658,7 +24673,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1834" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1834" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1834" s="34" t="s">
         <v>937</v>
       </c>
@@ -24735,7 +24750,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1841" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1841" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1841" s="33" t="s">
         <v>938</v>
       </c>
@@ -24812,7 +24827,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1848" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1848" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1848" s="33" t="s">
         <v>939</v>
       </c>
@@ -24889,7 +24904,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1855" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1855" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1855" s="34" t="s">
         <v>941</v>
       </c>
@@ -24966,7 +24981,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1862" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1862" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1862" s="33" t="s">
         <v>943</v>
       </c>
@@ -25043,7 +25058,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1869" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1869" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1869" s="34" t="s">
         <v>945</v>
       </c>
@@ -25120,7 +25135,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1876" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1876" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1876" s="33" t="s">
         <v>947</v>
       </c>
@@ -25197,7 +25212,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1883" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1883" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1883" s="33" t="s">
         <v>208</v>
       </c>
@@ -25254,7 +25269,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="1888" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1888" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1888" s="36" t="s">
         <v>1053</v>
       </c>
@@ -25448,7 +25463,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="1906" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1906" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1906" s="36" t="s">
         <v>1003</v>
       </c>
@@ -26184,7 +26199,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="1978" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1978" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1978" s="36"/>
       <c r="C1978" s="6"/>
       <c r="D1978" s="7">
@@ -26194,7 +26209,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="1979" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1979" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1979" s="37" t="s">
         <v>1033</v>
       </c>
@@ -26281,7 +26296,7 @@
       </c>
       <c r="E1987" s="57"/>
     </row>
-    <row r="1988" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1988" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1988" s="36"/>
       <c r="C1988" s="6"/>
       <c r="D1988" s="7">
@@ -26291,7 +26306,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="1989" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1989" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1989" s="33" t="s">
         <v>209</v>
       </c>
@@ -26308,7 +26323,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="1990" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1990" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B1990" s="37" t="s">
         <v>1045</v>
       </c>
@@ -26422,7 +26437,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="2000" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2000" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B2000" s="36" t="s">
         <v>1038</v>
       </c>
@@ -26479,7 +26494,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="2005" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2005" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2005" s="34"/>
       <c r="C2005" s="6"/>
       <c r="D2005" s="7">
@@ -26489,7 +26504,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="2006" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2006" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B2006" s="33" t="s">
         <v>211</v>
       </c>
@@ -26635,7 +26650,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="2019" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2019" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B2019" s="33" t="s">
         <v>215</v>
       </c>
@@ -26692,7 +26707,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="2024" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2024" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2024" s="34"/>
       <c r="C2024" s="6"/>
       <c r="D2024" s="7">
@@ -26702,7 +26717,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="2025" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2025" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B2025" s="33" t="s">
         <v>216</v>
       </c>
@@ -26769,7 +26784,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="2031" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2031" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B2031" s="34" t="s">
         <v>217</v>
       </c>
@@ -26826,7 +26841,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="2036" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2036" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B2036" s="33" t="s">
         <v>218</v>
       </c>
@@ -26873,7 +26888,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="2040" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2040" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B2040" s="33" t="s">
         <v>219</v>
       </c>
@@ -26930,7 +26945,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="2045" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2045" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B2045" s="33" t="s">
         <v>220</v>
       </c>
@@ -26997,7 +27012,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="2051" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2051" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B2051" s="33" t="s">
         <v>221</v>
       </c>
@@ -27231,7 +27246,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="2073" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2073" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B2073" s="36" t="s">
         <v>1063</v>
       </c>
@@ -27308,7 +27323,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="2080" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2080" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2080" s="34"/>
       <c r="C2080" s="6"/>
       <c r="D2080" s="7">
@@ -27318,7 +27333,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="2081" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2081" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B2081" s="33" t="s">
         <v>223</v>
       </c>
@@ -27442,7 +27457,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="2092" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2092" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2092" s="34"/>
       <c r="C2092" s="6"/>
       <c r="D2092" s="16">
@@ -27452,7 +27467,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="2093" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2093" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B2093" s="33" t="s">
         <v>224</v>
       </c>
@@ -27539,7 +27554,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="2101" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2101" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B2101" s="33" t="s">
         <v>225</v>
       </c>
@@ -27626,7 +27641,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="2109" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2109" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B2109" s="33" t="s">
         <v>226</v>
       </c>
@@ -27713,7 +27728,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="2117" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2117" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B2117" s="33" t="s">
         <v>227</v>
       </c>
@@ -27800,7 +27815,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="2125" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2125" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B2125" s="33" t="s">
         <v>228</v>
       </c>
@@ -27887,7 +27902,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="2133" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2133" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B2133" s="33" t="s">
         <v>229</v>
       </c>
@@ -27974,7 +27989,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="2141" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2141" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B2141" s="33" t="s">
         <v>230</v>
       </c>
@@ -28061,7 +28076,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="2149" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2149" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B2149" s="33" t="s">
         <v>231</v>
       </c>
@@ -28148,7 +28163,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="2157" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2157" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B2157" s="33" t="s">
         <v>232</v>
       </c>
@@ -28235,7 +28250,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="2165" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2165" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B2165" s="33" t="s">
         <v>233</v>
       </c>
@@ -28322,7 +28337,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="2173" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2173" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B2173" s="33" t="s">
         <v>234</v>
       </c>
@@ -28409,7 +28424,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="2181" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2181" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B2181" s="33" t="s">
         <v>235</v>
       </c>
@@ -28496,7 +28511,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="2189" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2189" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B2189" s="33" t="s">
         <v>236</v>
       </c>
@@ -28583,7 +28598,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="2197" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2197" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B2197" s="33" t="s">
         <v>237</v>
       </c>
@@ -28868,7 +28883,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="2222" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2222" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B2222" s="33" t="s">
         <v>245</v>
       </c>
@@ -28975,7 +28990,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="2232" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2232" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B2232" s="33" t="s">
         <v>246</v>
       </c>
@@ -29072,7 +29087,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="2241" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2241" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B2241" s="36" t="s">
         <v>1070</v>
       </c>
@@ -29129,7 +29144,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="2246" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2246" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2246" s="34"/>
       <c r="C2246" s="6"/>
       <c r="D2246" s="7">
@@ -29139,7 +29154,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="2247" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2247" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B2247" s="33" t="s">
         <v>247</v>
       </c>
@@ -29294,7 +29309,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:F2260" xr:uid="{178280A9-1EC8-774B-8EB9-D7C22D087CBE}"/>
+  <autoFilter ref="B2:F2260" xr:uid="{178280A9-1EC8-774B-8EB9-D7C22D087CBE}">
+    <filterColumn colId="4">
+      <filters blank="1">
+        <filter val="Category"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="E1986:E1987"/>
     <mergeCell ref="E1908:E1910"/>
